--- a/tournaments.xlsx
+++ b/tournaments.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC50250-5D98-40BA-9254-8DBB0C293F95}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr showObjects="none" filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D459C2-0890-4294-BD3F-30BA6B2233A2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="253">
   <si>
     <t>ESL Major Series 7</t>
   </si>
@@ -419,9 +419,6 @@
 https://lol.fandom.com/wiki/Season_1_World_Championship</t>
   </si>
   <si>
-    <t>https://lol.fandom.com/wiki/ESL_Major_Series/Season_VII</t>
-  </si>
-  <si>
     <t>MLG Pro Circuit 2011 - Raleigh</t>
   </si>
   <si>
@@ -548,20 +545,251 @@
     <t>PO</t>
   </si>
   <si>
-    <t>Team</t>
-  </si>
-  <si>
     <t>Reg</t>
   </si>
   <si>
     <t>Elo</t>
+  </si>
+  <si>
+    <t>https://liquipedia.net/leagueoflegends/Intel_Extreme_Masters/Season_V/Hanover</t>
+  </si>
+  <si>
+    <t>https://liquipedia.net/leagueoflegends/Intel_Extreme_Masters/Season_VI/Cologne</t>
+  </si>
+  <si>
+    <t>https://liquipedia.net/leagueoflegends/Intel_Extreme_Masters/Season_VI/Guangzhou</t>
+  </si>
+  <si>
+    <t>https://liquipedia.net/leagueoflegends/Intel_Extreme_Masters/Season_VI/New_York</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Winner Team</t>
+  </si>
+  <si>
+    <t>myRevenge</t>
+  </si>
+  <si>
+    <t>against All authority</t>
+  </si>
+  <si>
+    <t>Team Dignitas EU</t>
+  </si>
+  <si>
+    <t>Xan</t>
+  </si>
+  <si>
+    <t>Pacific eSports</t>
+  </si>
+  <si>
+    <t>compLexity Gaming</t>
+  </si>
+  <si>
+    <t>NoA</t>
+  </si>
+  <si>
+    <t>Millenium</t>
+  </si>
+  <si>
+    <t>Epik Gamer</t>
+  </si>
+  <si>
+    <t>Team gamed!de</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2024 World Championship</t>
+  </si>
+  <si>
+    <t>25-</t>
+  </si>
+  <si>
+    <t>LCK Summer 2024</t>
+  </si>
+  <si>
+    <t>12-</t>
+  </si>
+  <si>
+    <t>LCK Regional Finals 2024</t>
+  </si>
+  <si>
+    <t>12-14</t>
+  </si>
+  <si>
+    <t>LCK Spring 2024</t>
+  </si>
+  <si>
+    <t>17-</t>
+  </si>
+  <si>
+    <t>LPL Spring 2024</t>
+  </si>
+  <si>
+    <t>LPL Summer 2024</t>
+  </si>
+  <si>
+    <t>-30</t>
+  </si>
+  <si>
+    <t>LPL Regional Finals 2024</t>
+  </si>
+  <si>
+    <t>31-</t>
+  </si>
+  <si>
+    <t>LCS Summer 2024</t>
+  </si>
+  <si>
+    <t>15-</t>
+  </si>
+  <si>
+    <t>-7</t>
+  </si>
+  <si>
+    <t>20-</t>
+  </si>
+  <si>
+    <t>LCS Spring 2024</t>
+  </si>
+  <si>
+    <t>-31</t>
+  </si>
+  <si>
+    <t>LEC Winter 2024</t>
+  </si>
+  <si>
+    <t>13-</t>
+  </si>
+  <si>
+    <t>LEC Spring 2024</t>
+  </si>
+  <si>
+    <t>9-</t>
+  </si>
+  <si>
+    <t>Mid-Season Invitational 2024</t>
+  </si>
+  <si>
+    <t>1-19</t>
+  </si>
+  <si>
+    <t>Esports World Cup 2024</t>
+  </si>
+  <si>
+    <t>4-7</t>
+  </si>
+  <si>
+    <t>LEC Summer 2024</t>
+  </si>
+  <si>
+    <t>8-</t>
+  </si>
+  <si>
+    <t>-28</t>
+  </si>
+  <si>
+    <t>LEC Season Finals 2024</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>Team SoloMid</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>Frag eXecutors</t>
+  </si>
+  <si>
+    <t>Team ALTERNATE</t>
+  </si>
+  <si>
+    <t>CrossGaming</t>
+  </si>
+  <si>
+    <t>EHOME</t>
+  </si>
+  <si>
+    <t>Flash eSports</t>
+  </si>
+  <si>
+    <t>Invictus Gaming</t>
+  </si>
+  <si>
+    <t>Team WE</t>
+  </si>
+  <si>
+    <t>Team Curse</t>
+  </si>
+  <si>
+    <t>Team Dignitas</t>
+  </si>
+  <si>
+    <t>Team Sypher</t>
+  </si>
+  <si>
+    <t>v8 eSports</t>
+  </si>
+  <si>
+    <t>Chicks Dig Elo</t>
+  </si>
+  <si>
+    <t>MeetYourMakers</t>
+  </si>
+  <si>
+    <t>NaJin e-mFire</t>
+  </si>
+  <si>
+    <t>Team Acer</t>
+  </si>
+  <si>
+    <t>Gameburg Team</t>
+  </si>
+  <si>
+    <t>For The Win</t>
+  </si>
+  <si>
+    <t>Team Jantelaget</t>
+  </si>
+  <si>
+    <t>Sex is our Life</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>APictureOfAGoose</t>
+  </si>
+  <si>
+    <t>RFLX Gaming</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>IEM - Hanover</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,6 +798,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -669,7 +927,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -802,11 +1060,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -821,9 +1091,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -860,9 +1127,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -872,9 +1136,6 @@
     <xf numFmtId="49" fontId="1" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -885,9 +1146,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -909,37 +1167,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -958,12 +1185,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1003,9 +1224,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1021,11 +1239,188 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1304,7 +1699,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C2" sqref="B2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,226 +1712,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="34"/>
-      <c r="B1" s="74" t="s">
+      <c r="A1" s="30"/>
+      <c r="B1" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32"/>
+      <c r="B3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="F1" s="57"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="2" t="s">
+      <c r="E4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="2"/>
       <c r="C6" s="5"/>
       <c r="D6" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="2"/>
       <c r="C7" s="5"/>
       <c r="D7" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="2"/>
       <c r="C8" s="5"/>
       <c r="D8" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="2"/>
       <c r="C9" s="5"/>
       <c r="D9" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="2"/>
       <c r="C10" s="5"/>
       <c r="D10" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="2"/>
       <c r="C11" s="5"/>
       <c r="D11" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="2"/>
       <c r="C12" s="5"/>
       <c r="D12" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="2"/>
       <c r="C13" s="5"/>
       <c r="D13" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="2"/>
       <c r="C14" s="5"/>
       <c r="D14" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="2"/>
       <c r="C15" s="5"/>
       <c r="D15" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="2"/>
       <c r="C16" s="5"/>
       <c r="D16" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="67" t="s">
-        <v>167</v>
-      </c>
-      <c r="E17" s="68" t="s">
-        <v>149</v>
+      <c r="E17" s="51" t="s">
+        <v>148</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -1679,7 +2074,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1690,20 +2085,20 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" t="s">
         <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -1714,7 +2109,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4">
         <v>16</v>
@@ -1725,7 +2120,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -1741,10 +2136,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88CE117-8327-4DFC-B9F4-7717AFA05AB1}">
-  <dimension ref="B1:P52"/>
+  <dimension ref="B1:O46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1753,157 +2148,644 @@
     <col min="4" max="4" width="51" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="49.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="43" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" customWidth="1"/>
+    <col min="12" max="12" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" customWidth="1"/>
     <col min="14" max="14" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="59" t="s">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C1" s="112" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" t="s">
-        <v>53</v>
-      </c>
-      <c r="N17" t="s">
-        <v>56</v>
-      </c>
-      <c r="P17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="59"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="K29" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="N29" s="59" t="s">
+      <c r="E1" s="112" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="112" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="113" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="59" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D31" s="59" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D32" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D33" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="N34" s="59" t="s">
+      <c r="I1" s="112" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" s="60" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K43" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="N43" s="59" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>66</v>
-      </c>
+      <c r="K1" s="112" t="s">
+        <v>151</v>
+      </c>
+      <c r="L1" s="61"/>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H2" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J2" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="K2" t="s">
+        <v>189</v>
+      </c>
+      <c r="O2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="I3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" s="62" t="s">
+        <v>235</v>
+      </c>
+      <c r="K3" t="s">
+        <v>189</v>
+      </c>
+      <c r="O3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="G4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="I4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="K4" t="s">
+        <v>148</v>
+      </c>
+      <c r="O4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="I5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="K5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D6" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="I6" t="s">
+        <v>149</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="K6" t="s">
+        <v>189</v>
+      </c>
+      <c r="O6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D7" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="I7" t="s">
+        <v>148</v>
+      </c>
+      <c r="J7" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="K7" t="s">
+        <v>189</v>
+      </c>
+      <c r="N7" s="63"/>
+      <c r="O7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D8" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="G8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" t="s">
+        <v>148</v>
+      </c>
+      <c r="J8" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="K8" t="s">
+        <v>148</v>
+      </c>
+      <c r="O8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D9" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="G9" t="s">
+        <v>189</v>
+      </c>
+      <c r="H9" s="62" t="s">
+        <v>234</v>
+      </c>
+      <c r="I9" t="s">
+        <v>149</v>
+      </c>
+      <c r="J9" s="62" t="s">
+        <v>238</v>
+      </c>
+      <c r="K9" t="s">
+        <v>189</v>
+      </c>
+      <c r="O9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="O10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="O11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="O12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="N13" s="63"/>
+      <c r="O13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="59"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="42"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="114" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="114" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" t="s">
+        <v>151</v>
+      </c>
+      <c r="H27" s="113" t="s">
+        <v>141</v>
+      </c>
+      <c r="I27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="E28" t="s">
+        <v>189</v>
+      </c>
+      <c r="F28" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="G28" t="s">
+        <v>189</v>
+      </c>
+      <c r="H28" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="I28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="C29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="E29" t="s">
+        <v>189</v>
+      </c>
+      <c r="F29" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="G29" t="s">
+        <v>189</v>
+      </c>
+      <c r="H29" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="I29" t="s">
+        <v>189</v>
+      </c>
+      <c r="J29" s="42"/>
+      <c r="N29" s="42"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="62" t="s">
+        <v>235</v>
+      </c>
+      <c r="C30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D30" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="E30" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" t="s">
+        <v>189</v>
+      </c>
+      <c r="H30" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="I30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="E31" t="s">
+        <v>189</v>
+      </c>
+      <c r="F31" s="62" t="s">
+        <v>235</v>
+      </c>
+      <c r="G31" t="s">
+        <v>189</v>
+      </c>
+      <c r="H31" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="I31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F32" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="G32" t="s">
+        <v>189</v>
+      </c>
+      <c r="H32" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="I32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F33" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="G33" t="s">
+        <v>189</v>
+      </c>
+      <c r="H33" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="I33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F34" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="G34" t="s">
+        <v>189</v>
+      </c>
+      <c r="H34" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="I34" t="s">
+        <v>247</v>
+      </c>
+      <c r="N34" s="42"/>
+    </row>
+    <row r="35" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F35" s="62" t="s">
+        <v>238</v>
+      </c>
+      <c r="G35" t="s">
+        <v>189</v>
+      </c>
+      <c r="H35" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="I35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F36" s="62"/>
+      <c r="H36" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="I36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F37" s="62"/>
+      <c r="H37" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="I37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="H38" s="62" t="s">
+        <v>244</v>
+      </c>
+      <c r="I38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="H39" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="I39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="H40" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="I40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="J43" s="1"/>
+      <c r="N43" s="42"/>
+    </row>
+    <row r="44" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F44" s="42"/>
+    </row>
+    <row r="45" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F46" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT56"/>
+  <dimension ref="A1:AT81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AH14" sqref="AH14"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AF11" sqref="AF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1918,1248 +2800,1271 @@
     <col min="8" max="8" width="51" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.140625" style="3" customWidth="1"/>
     <col min="10" max="10" width="43.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="41" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="43.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="45.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.140625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="48" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.140625" style="3" customWidth="1"/>
-    <col min="20" max="20" width="28.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="39.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.140625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="38.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.140625" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" style="58"/>
-    <col min="30" max="30" width="30.140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="69.140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="58" customWidth="1"/>
+    <col min="12" max="12" width="41" style="58" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="58" customWidth="1"/>
+    <col min="14" max="14" width="43.140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" style="58" customWidth="1"/>
+    <col min="16" max="16" width="45.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.140625" style="58" customWidth="1"/>
+    <col min="18" max="18" width="48" style="58" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.140625" style="58" customWidth="1"/>
+    <col min="20" max="20" width="28.28515625" style="58" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="39.5703125" style="58" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.140625" style="58" customWidth="1"/>
+    <col min="24" max="24" width="38.5703125" style="58" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" style="1"/>
+    <col min="29" max="29" width="9.140625" style="41"/>
+    <col min="30" max="30" width="51" style="41" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="80.7109375" style="41" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.140625" style="79"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>2010</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="42" t="s">
+      <c r="C1" s="88"/>
+      <c r="D1" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="42" t="s">
+      <c r="E1" s="88"/>
+      <c r="F1" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="45" t="s">
+      <c r="G1" s="88"/>
+      <c r="H1" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="42" t="s">
+      <c r="I1" s="90"/>
+      <c r="J1" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="43"/>
-      <c r="L1" s="42" t="s">
+      <c r="K1" s="88"/>
+      <c r="L1" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="45" t="s">
+      <c r="M1" s="85"/>
+      <c r="N1" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="41"/>
-      <c r="P1" s="42" t="s">
+      <c r="O1" s="83"/>
+      <c r="P1" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="48" t="s">
+      <c r="Q1" s="85"/>
+      <c r="R1" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="46"/>
-      <c r="T1" s="48" t="s">
+      <c r="S1" s="94"/>
+      <c r="T1" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="39"/>
-      <c r="V1" s="48" t="s">
+      <c r="U1" s="80"/>
+      <c r="V1" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="46"/>
-      <c r="X1" s="47" t="s">
+      <c r="W1" s="94"/>
+      <c r="X1" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="46"/>
+      <c r="Y1" s="94"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="K2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="55" t="s">
+      <c r="K2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="S2" s="56" t="s">
+      <c r="S2" s="105" t="s">
         <v>127</v>
       </c>
-      <c r="T2" s="55" t="s">
+      <c r="T2" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="U2" s="56">
+      <c r="U2" s="47">
         <v>-3</v>
       </c>
-      <c r="V2" s="23" t="s">
+      <c r="V2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="23" t="s">
+      <c r="W2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="23" t="s">
+      <c r="X2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="Y2" s="23" t="s">
+      <c r="Y2" s="21" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="K3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="23" t="s">
+      <c r="K3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="U3" s="23" t="s">
+      <c r="U3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="33"/>
-      <c r="Y3" s="38"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="32"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="61">
+      <c r="A4" s="44">
         <v>2011</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="42" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="42" t="s">
+      <c r="E4" s="88"/>
+      <c r="F4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="45" t="s">
+      <c r="G4" s="88"/>
+      <c r="H4" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="42" t="s">
+      <c r="I4" s="90"/>
+      <c r="J4" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="42" t="s">
+      <c r="K4" s="88"/>
+      <c r="L4" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="43"/>
-      <c r="N4" s="45" t="s">
+      <c r="M4" s="85"/>
+      <c r="N4" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="41"/>
-      <c r="P4" s="42" t="s">
+      <c r="O4" s="83"/>
+      <c r="P4" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="48" t="s">
+      <c r="Q4" s="83"/>
+      <c r="R4" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="46"/>
-      <c r="T4" s="48" t="s">
+      <c r="S4" s="83"/>
+      <c r="T4" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="39"/>
-      <c r="V4" s="48" t="s">
+      <c r="U4" s="80"/>
+      <c r="V4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="W4" s="46"/>
-      <c r="X4" s="47" t="s">
+      <c r="W4" s="94"/>
+      <c r="X4" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="Y4" s="46"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="72"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" t="s">
+      <c r="Y4" s="94"/>
+      <c r="AC4" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD4" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE4" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF4" s="117" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG4" s="117" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH4" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="AG4" t="s">
+    </row>
+    <row r="5" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="44"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="96" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="S5" s="101" t="s">
+        <v>73</v>
+      </c>
+      <c r="T5" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="U5" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="V5" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="W5" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="X5" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y5" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="115" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD5" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE5" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF5" s="116" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG5" s="116" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH5" s="74" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="101" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="R6" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="S6" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="T6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="V6" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="W6" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="X6" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y6" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD6" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AF6" s="118" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG6" s="118" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH6" s="119" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="44"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="99" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="R7" s="102" t="s">
+        <v>85</v>
+      </c>
+      <c r="S7" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="T7" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="U7" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="V7" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="W7" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="X7" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y7" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE7" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF7" s="78"/>
+      <c r="AG7" s="78"/>
+      <c r="AH7" s="77"/>
+    </row>
+    <row r="8" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="98" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="101" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q8" s="101" t="s">
+        <v>62</v>
+      </c>
+      <c r="R8" s="102" t="s">
+        <v>86</v>
+      </c>
+      <c r="S8" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="T8" s="102" t="s">
+        <v>8</v>
+      </c>
+      <c r="U8" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="V8" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="W8" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="X8" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y8" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE8" s="42" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="5" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="23" t="s">
+      <c r="AH8" s="77"/>
+    </row>
+    <row r="9" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="101" t="s">
+        <v>62</v>
+      </c>
+      <c r="R9" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="S9" s="102" t="s">
+        <v>82</v>
+      </c>
+      <c r="T9" s="4"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="W9" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="X9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y9" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE9" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH9" s="77"/>
+    </row>
+    <row r="10" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="S10" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="4"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="W10" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="9"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE10" s="111" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH10" s="77"/>
+    </row>
+    <row r="11" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="99" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="R11" s="102" t="s">
+        <v>87</v>
+      </c>
+      <c r="S11" s="102" t="s">
+        <v>45</v>
+      </c>
+      <c r="T11" s="4"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="W11" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="9"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE11" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH11" s="77"/>
+    </row>
+    <row r="12" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="44"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" s="101" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="101" t="s">
+        <v>72</v>
+      </c>
+      <c r="R12" s="102" t="s">
+        <v>81</v>
+      </c>
+      <c r="S12" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="T12" s="4"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="W12" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="9"/>
+      <c r="AB12" s="32"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE12" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH12" s="77"/>
+    </row>
+    <row r="13" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="99" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13" s="102" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q13" s="102" t="s">
+        <v>72</v>
+      </c>
+      <c r="R13" s="101" t="s">
+        <v>71</v>
+      </c>
+      <c r="S13" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="T13" s="4"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="W13" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="S5" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="T5" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="U5" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="V5" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="W5" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="X5" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y5" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD5" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE5" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="O6" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q6" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="R6" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="S6" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="T6" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="U6" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="V6" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="W6" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="X6" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y6" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="71" t="s">
+      <c r="X13" s="4"/>
+      <c r="Y13" s="9"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE13" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH13" s="77"/>
+    </row>
+    <row r="14" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="P14" s="102" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q14" s="102" t="s">
+        <v>72</v>
+      </c>
+      <c r="R14" s="102" t="s">
+        <v>88</v>
+      </c>
+      <c r="S14" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="T14" s="4"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="W14" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="9"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="115"/>
+      <c r="AD14" s="116" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE14" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF14" s="116"/>
+      <c r="AG14" s="116"/>
+      <c r="AH14" s="72"/>
+    </row>
+    <row r="15" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="P15" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="AF6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="P7" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q7" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="R7" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="S7" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="T7" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="U7" s="64" t="s">
-        <v>140</v>
-      </c>
-      <c r="V7" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="W7" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="X7" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y7" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB7" s="36"/>
-      <c r="AC7" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD7" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="59"/>
-    </row>
-    <row r="8" spans="1:34" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="P8" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q8" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="R8" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="S8" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="T8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="U8" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="V8" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="W8" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="X8" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y8" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="59"/>
-      <c r="AD8" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE8" s="54" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q9" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="R9" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="S9" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="T9" s="4"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="W9" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="X9" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y9" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="59"/>
-      <c r="AD9" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE9" s="59"/>
-    </row>
-    <row r="10" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="R10" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="S10" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="T10" s="4"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="W10" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="10"/>
-      <c r="AB10" s="36"/>
-      <c r="AC10" s="59"/>
-      <c r="AD10" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE10" s="59"/>
-    </row>
-    <row r="11" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="O11" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="P11" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q11" s="25" t="s">
+      <c r="Q15" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="R15" s="102" t="s">
+        <v>89</v>
+      </c>
+      <c r="S15" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="R11" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="S11" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="T11" s="4"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="W11" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="10"/>
-      <c r="AB11" s="36"/>
-      <c r="AC11" s="59"/>
-      <c r="AD11" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE11" s="59"/>
-    </row>
-    <row r="12" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="O12" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="P12" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q12" s="24" t="s">
+      <c r="T15" s="4"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="W15" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="9"/>
+      <c r="AB15" s="32"/>
+      <c r="AH15" s="78"/>
+    </row>
+    <row r="16" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="O16" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="S16" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="R12" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="S12" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="T12" s="4"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="W12" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="10"/>
-      <c r="AB12" s="36"/>
-      <c r="AC12" s="59"/>
-      <c r="AD12" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE12" s="59"/>
-    </row>
-    <row r="13" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="O13" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="P13" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q13" s="25" t="s">
+      <c r="T16" s="4"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="W16" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="9"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="42"/>
+      <c r="AH16" s="78"/>
+    </row>
+    <row r="17" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="O17" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="W17" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="R13" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="S13" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="T13" s="4"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="W13" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="10"/>
-      <c r="AB13" s="36"/>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE13" s="59"/>
-    </row>
-    <row r="14" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="O14" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="P14" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="25" t="s">
+      <c r="X17" s="4"/>
+      <c r="Y17" s="9"/>
+      <c r="AB17" s="32"/>
+      <c r="AF17" s="107"/>
+      <c r="AH17" s="78"/>
+    </row>
+    <row r="18" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="W18" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="R14" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="S14" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="T14" s="4"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="W14" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="10"/>
-      <c r="AB14" s="36"/>
-      <c r="AC14" s="59"/>
-      <c r="AD14" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE14" s="59"/>
-    </row>
-    <row r="15" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="O15" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="P15" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q15" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="R15" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="S15" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="T15" s="4"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="W15" s="64" t="s">
-        <v>137</v>
-      </c>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="10"/>
-      <c r="AB15" s="36"/>
-      <c r="AC15" s="59"/>
-      <c r="AD15" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE15" s="59" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="O16" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="S16" s="25" t="s">
+      <c r="X18" s="4"/>
+      <c r="Y18" s="9"/>
+      <c r="AB18" s="32"/>
+      <c r="AH18" s="78"/>
+    </row>
+    <row r="19" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="101" t="s">
+        <v>63</v>
+      </c>
+      <c r="O19" s="101" t="s">
+        <v>67</v>
+      </c>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="W19" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="T16" s="4"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="W16" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="10"/>
-      <c r="AB16" s="36"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE16" s="59" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="O17" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="W17" s="28" t="s">
+      <c r="X19" s="4"/>
+      <c r="Y19" s="9"/>
+      <c r="AB19" s="32"/>
+      <c r="AH19" s="78"/>
+    </row>
+    <row r="20" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="101" t="s">
+        <v>66</v>
+      </c>
+      <c r="O20" s="101" t="s">
+        <v>67</v>
+      </c>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="W20" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="10"/>
-      <c r="AB17" s="36"/>
-      <c r="AD17" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE17" s="59" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="O18" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="W18" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="10"/>
-      <c r="AB18" s="36"/>
-      <c r="AD18" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AE18" s="59" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="O19" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="W19" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="10"/>
-      <c r="AB19" s="36"/>
-    </row>
-    <row r="20" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="O20" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="W20" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="10"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="9"/>
+      <c r="AH20" s="78"/>
     </row>
     <row r="21" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="20"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="19"/>
+      <c r="AH21" s="78"/>
     </row>
     <row r="22" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="45" t="s">
+      <c r="C22" s="88"/>
+      <c r="D22" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="44" t="s">
+      <c r="E22" s="90"/>
+      <c r="F22" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="43"/>
-      <c r="H22" s="45" t="s">
+      <c r="G22" s="88"/>
+      <c r="H22" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="40" t="s">
+      <c r="I22" s="90"/>
+      <c r="J22" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="41"/>
-      <c r="L22" s="40" t="s">
+      <c r="K22" s="90"/>
+      <c r="L22" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="41"/>
-      <c r="N22" s="40" t="s">
+      <c r="M22" s="83"/>
+      <c r="N22" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="O22" s="41"/>
-      <c r="P22" s="40" t="s">
+      <c r="O22" s="83"/>
+      <c r="P22" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="42" t="s">
+      <c r="Q22" s="83"/>
+      <c r="R22" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="S22" s="43"/>
-      <c r="T22" s="42" t="s">
+      <c r="S22" s="85"/>
+      <c r="T22" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="U22" s="44"/>
-      <c r="V22" s="42" t="s">
+      <c r="U22" s="86"/>
+      <c r="V22" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="W22" s="43"/>
-      <c r="X22" s="42" t="s">
+      <c r="W22" s="85"/>
+      <c r="X22" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="Y22" s="43"/>
+      <c r="Y22" s="85"/>
+      <c r="AH22" s="78"/>
     </row>
     <row r="23" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="28" t="s">
+      <c r="A23" s="32"/>
+      <c r="B23" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="E23" s="51" t="s">
+      <c r="E23" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="52" t="s">
+      <c r="F23" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="G23" s="53" t="s">
+      <c r="G23" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="23" t="s">
+      <c r="I23" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="23" t="s">
+      <c r="J23" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="23" t="s">
+      <c r="K23" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="L23" s="23" t="s">
+      <c r="L23" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="M23" s="23" t="s">
+      <c r="M23" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="N23" s="23" t="s">
+      <c r="N23" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="O23" s="23" t="s">
+      <c r="O23" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="P23" s="23" t="s">
+      <c r="P23" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="Q23" s="23" t="s">
+      <c r="Q23" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="R23" s="23" t="s">
+      <c r="R23" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="S23" s="23" t="s">
+      <c r="S23" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="T23" s="23" t="s">
+      <c r="T23" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="U23" s="23" t="s">
+      <c r="U23" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="V23" s="23" t="s">
+      <c r="V23" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23" t="s">
+      <c r="W23" s="21"/>
+      <c r="X23" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="Y23" s="23"/>
-      <c r="AE23" s="59"/>
+      <c r="Y23" s="21"/>
+      <c r="AE23" s="108"/>
+      <c r="AH23" s="78"/>
     </row>
     <row r="24" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="32"/>
+      <c r="B24" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="21" t="s">
         <v>34</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="5"/>
       <c r="J24" s="2"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="2"/>
+      <c r="L24" s="58"/>
       <c r="M24" s="5"/>
-      <c r="N24" s="2"/>
+      <c r="N24" s="58"/>
       <c r="O24" s="5"/>
-      <c r="P24" s="2"/>
+      <c r="P24" s="58"/>
       <c r="Q24" s="5"/>
-      <c r="R24" s="2"/>
+      <c r="R24" s="58"/>
       <c r="S24" s="5"/>
-      <c r="T24" s="23" t="s">
+      <c r="T24" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="U24" s="23"/>
-      <c r="V24" s="2"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="58"/>
       <c r="W24" s="5"/>
-      <c r="X24" s="2"/>
+      <c r="X24" s="58"/>
       <c r="Y24" s="5"/>
-      <c r="AC24" s="59"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="59"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="108"/>
+      <c r="AH24" s="78"/>
     </row>
     <row r="25" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="2"/>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -3170,26 +4075,27 @@
       <c r="I25" s="5"/>
       <c r="J25" s="2"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="2"/>
+      <c r="L25" s="58"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="2"/>
+      <c r="N25" s="58"/>
       <c r="O25" s="5"/>
-      <c r="P25" s="2"/>
+      <c r="P25" s="58"/>
       <c r="Q25" s="5"/>
-      <c r="R25" s="2"/>
+      <c r="R25" s="58"/>
       <c r="S25" s="5"/>
-      <c r="T25" s="2"/>
+      <c r="T25" s="58"/>
       <c r="U25" s="5"/>
-      <c r="V25" s="2"/>
+      <c r="V25" s="58"/>
       <c r="W25" s="5"/>
-      <c r="X25" s="2"/>
+      <c r="X25" s="58"/>
       <c r="Y25" s="5"/>
-      <c r="AC25" s="59"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="59"/>
+      <c r="AC25" s="42"/>
+      <c r="AD25" s="42"/>
+      <c r="AE25" s="108"/>
+      <c r="AH25" s="78"/>
     </row>
     <row r="26" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="2"/>
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
@@ -3200,26 +4106,27 @@
       <c r="I26" s="5"/>
       <c r="J26" s="2"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="2"/>
+      <c r="L26" s="58"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="2"/>
+      <c r="N26" s="58"/>
       <c r="O26" s="5"/>
-      <c r="P26" s="2"/>
+      <c r="P26" s="58"/>
       <c r="Q26" s="5"/>
-      <c r="R26" s="2"/>
+      <c r="R26" s="58"/>
       <c r="S26" s="5"/>
-      <c r="T26" s="2"/>
+      <c r="T26" s="58"/>
       <c r="U26" s="5"/>
-      <c r="V26" s="2"/>
+      <c r="V26" s="58"/>
       <c r="W26" s="5"/>
-      <c r="X26" s="2"/>
+      <c r="X26" s="58"/>
       <c r="Y26" s="5"/>
-      <c r="AC26" s="59"/>
-      <c r="AD26" s="59"/>
-      <c r="AE26" s="59"/>
+      <c r="AC26" s="42"/>
+      <c r="AD26" s="42"/>
+      <c r="AE26" s="108"/>
+      <c r="AH26" s="78"/>
     </row>
     <row r="27" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="2"/>
       <c r="C27" s="5"/>
       <c r="E27" s="5"/>
@@ -3229,26 +4136,28 @@
       <c r="I27" s="5"/>
       <c r="J27" s="2"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="2"/>
+      <c r="L27" s="58"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="2"/>
+      <c r="N27" s="58"/>
       <c r="O27" s="5"/>
-      <c r="P27" s="2"/>
+      <c r="P27" s="58"/>
       <c r="Q27" s="5"/>
-      <c r="R27" s="2"/>
+      <c r="R27" s="58"/>
       <c r="S27" s="5"/>
-      <c r="T27" s="2"/>
+      <c r="T27" s="58"/>
       <c r="U27" s="5"/>
-      <c r="V27" s="2"/>
+      <c r="V27" s="58"/>
       <c r="W27" s="5"/>
-      <c r="X27" s="2"/>
+      <c r="X27" s="58"/>
       <c r="Y27" s="5"/>
+      <c r="AE27" s="108"/>
+      <c r="AH27" s="78"/>
       <c r="AT27" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="2"/>
       <c r="C28" s="5"/>
       <c r="D28" s="2"/>
@@ -3259,19 +4168,21 @@
       <c r="I28" s="5"/>
       <c r="J28" s="2"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="2"/>
+      <c r="L28" s="58"/>
       <c r="M28" s="5"/>
       <c r="O28" s="5"/>
-      <c r="P28" s="2"/>
+      <c r="P28" s="58"/>
       <c r="Q28" s="5"/>
-      <c r="R28" s="2"/>
+      <c r="R28" s="58"/>
       <c r="S28" s="5"/>
-      <c r="T28" s="2"/>
+      <c r="T28" s="58"/>
       <c r="U28" s="5"/>
-      <c r="V28" s="2"/>
+      <c r="V28" s="58"/>
       <c r="W28" s="5"/>
-      <c r="X28" s="2"/>
+      <c r="X28" s="58"/>
       <c r="Y28" s="5"/>
+      <c r="AE28" s="108"/>
+      <c r="AH28" s="78"/>
     </row>
     <row r="29" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
@@ -3285,27 +4196,22 @@
       <c r="I29" s="5"/>
       <c r="J29" s="2"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="2"/>
+      <c r="L29" s="58"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="2"/>
+      <c r="N29" s="58"/>
       <c r="O29" s="5"/>
-      <c r="P29" s="7"/>
+      <c r="P29" s="6"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="7"/>
+      <c r="R29" s="6"/>
       <c r="S29" s="5"/>
-      <c r="T29" s="7"/>
+      <c r="T29" s="6"/>
       <c r="U29" s="5"/>
-      <c r="V29" s="2"/>
+      <c r="V29" s="58"/>
       <c r="W29" s="5"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="36"/>
-      <c r="AC29" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD29" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE29" s="59"/>
+      <c r="X29" s="58"/>
+      <c r="Y29" s="32"/>
+      <c r="AE29" s="108"/>
+      <c r="AH29" s="78"/>
     </row>
     <row r="30" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
@@ -3319,25 +4225,22 @@
       <c r="I30" s="5"/>
       <c r="J30" s="2"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="2"/>
+      <c r="L30" s="58"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="2"/>
+      <c r="N30" s="58"/>
       <c r="O30" s="5"/>
-      <c r="P30" s="7"/>
+      <c r="P30" s="6"/>
       <c r="Q30" s="5"/>
-      <c r="R30" s="7"/>
+      <c r="R30" s="6"/>
       <c r="S30" s="5"/>
-      <c r="T30" s="7"/>
+      <c r="T30" s="6"/>
       <c r="U30" s="5"/>
-      <c r="V30" s="2"/>
+      <c r="V30" s="58"/>
       <c r="W30" s="5"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="36"/>
-      <c r="AC30" s="59"/>
-      <c r="AD30" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE30" s="59"/>
+      <c r="X30" s="58"/>
+      <c r="Y30" s="32"/>
+      <c r="AE30" s="108"/>
+      <c r="AH30" s="78"/>
     </row>
     <row r="31" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
@@ -3351,25 +4254,22 @@
       <c r="I31" s="5"/>
       <c r="J31" s="2"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="2"/>
+      <c r="L31" s="58"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="2"/>
+      <c r="N31" s="58"/>
       <c r="O31" s="5"/>
-      <c r="P31" s="7"/>
+      <c r="P31" s="6"/>
       <c r="Q31" s="5"/>
-      <c r="R31" s="7"/>
+      <c r="R31" s="6"/>
       <c r="S31" s="5"/>
-      <c r="T31" s="7"/>
+      <c r="T31" s="6"/>
       <c r="U31" s="5"/>
-      <c r="V31" s="2"/>
+      <c r="V31" s="58"/>
       <c r="W31" s="5"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="36"/>
-      <c r="AC31" s="59"/>
-      <c r="AD31" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE31" s="59"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="32"/>
+      <c r="AE31" s="108"/>
+      <c r="AH31" s="78"/>
     </row>
     <row r="32" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
@@ -3383,27 +4283,24 @@
       <c r="I32" s="5"/>
       <c r="J32" s="2"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="2"/>
+      <c r="L32" s="58"/>
       <c r="M32" s="5"/>
-      <c r="N32" s="2"/>
+      <c r="N32" s="58"/>
       <c r="O32" s="5"/>
-      <c r="P32" s="7"/>
+      <c r="P32" s="6"/>
       <c r="Q32" s="5"/>
-      <c r="R32" s="7"/>
+      <c r="R32" s="6"/>
       <c r="S32" s="5"/>
-      <c r="T32" s="7"/>
+      <c r="T32" s="6"/>
       <c r="U32" s="5"/>
-      <c r="V32" s="2"/>
+      <c r="V32" s="58"/>
       <c r="W32" s="5"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="36"/>
-      <c r="AC32" s="59"/>
-      <c r="AD32" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE32" s="59"/>
-    </row>
-    <row r="33" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X32" s="58"/>
+      <c r="Y32" s="32"/>
+      <c r="AE32" s="108"/>
+      <c r="AH32" s="78"/>
+    </row>
+    <row r="33" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="2"/>
       <c r="C33" s="5"/>
@@ -3415,25 +4312,26 @@
       <c r="I33" s="5"/>
       <c r="J33" s="2"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="2"/>
+      <c r="L33" s="58"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="2"/>
+      <c r="N33" s="58"/>
       <c r="O33" s="5"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="7"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="6"/>
       <c r="S33" s="5"/>
-      <c r="T33" s="7"/>
+      <c r="T33" s="6"/>
       <c r="U33" s="5"/>
-      <c r="V33" s="2"/>
+      <c r="V33" s="58"/>
       <c r="W33" s="5"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="36"/>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="59"/>
-      <c r="AE33" s="59"/>
-    </row>
-    <row r="34" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X33" s="58"/>
+      <c r="Y33" s="32"/>
+      <c r="AC33" s="42"/>
+      <c r="AD33" s="42"/>
+      <c r="AE33" s="108"/>
+      <c r="AH33" s="78"/>
+    </row>
+    <row r="34" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="2"/>
       <c r="C34" s="5"/>
@@ -3445,25 +4343,26 @@
       <c r="I34" s="5"/>
       <c r="J34" s="2"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="2"/>
+      <c r="L34" s="58"/>
       <c r="M34" s="5"/>
-      <c r="N34" s="2"/>
+      <c r="N34" s="58"/>
       <c r="O34" s="5"/>
-      <c r="P34" s="7"/>
+      <c r="P34" s="6"/>
       <c r="Q34" s="5"/>
-      <c r="R34" s="7"/>
+      <c r="R34" s="6"/>
       <c r="S34" s="5"/>
-      <c r="T34" s="7"/>
+      <c r="T34" s="6"/>
       <c r="U34" s="5"/>
-      <c r="V34" s="2"/>
+      <c r="V34" s="58"/>
       <c r="W34" s="5"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="36"/>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="59"/>
-      <c r="AE34" s="59"/>
-    </row>
-    <row r="35" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X34" s="58"/>
+      <c r="Y34" s="32"/>
+      <c r="AC34" s="42"/>
+      <c r="AD34" s="42"/>
+      <c r="AE34" s="108"/>
+      <c r="AH34" s="78"/>
+    </row>
+    <row r="35" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="2"/>
       <c r="C35" s="5"/>
@@ -3475,25 +4374,26 @@
       <c r="I35" s="5"/>
       <c r="J35" s="2"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="2"/>
+      <c r="L35" s="58"/>
       <c r="M35" s="5"/>
-      <c r="N35" s="2"/>
+      <c r="N35" s="58"/>
       <c r="O35" s="5"/>
-      <c r="P35" s="7"/>
+      <c r="P35" s="6"/>
       <c r="Q35" s="5"/>
-      <c r="R35" s="7"/>
+      <c r="R35" s="6"/>
       <c r="S35" s="5"/>
-      <c r="T35" s="7"/>
+      <c r="T35" s="6"/>
       <c r="U35" s="5"/>
-      <c r="V35" s="2"/>
+      <c r="V35" s="58"/>
       <c r="W35" s="5"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="36"/>
-      <c r="AC35" s="59"/>
-      <c r="AD35" s="59"/>
-      <c r="AE35" s="59"/>
-    </row>
-    <row r="36" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X35" s="58"/>
+      <c r="Y35" s="32"/>
+      <c r="AC35" s="42"/>
+      <c r="AD35" s="42"/>
+      <c r="AE35" s="108"/>
+      <c r="AH35" s="78"/>
+    </row>
+    <row r="36" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="2"/>
       <c r="C36" s="5"/>
@@ -3505,25 +4405,26 @@
       <c r="I36" s="5"/>
       <c r="J36" s="2"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="2"/>
+      <c r="L36" s="58"/>
       <c r="M36" s="5"/>
-      <c r="N36" s="2"/>
+      <c r="N36" s="58"/>
       <c r="O36" s="5"/>
-      <c r="P36" s="7"/>
+      <c r="P36" s="6"/>
       <c r="Q36" s="5"/>
-      <c r="R36" s="7"/>
+      <c r="R36" s="6"/>
       <c r="S36" s="5"/>
-      <c r="T36" s="7"/>
+      <c r="T36" s="6"/>
       <c r="U36" s="5"/>
-      <c r="V36" s="2"/>
+      <c r="V36" s="58"/>
       <c r="W36" s="5"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="36"/>
-      <c r="AC36" s="59"/>
-      <c r="AD36" s="59"/>
-      <c r="AE36" s="59"/>
-    </row>
-    <row r="37" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X36" s="58"/>
+      <c r="Y36" s="32"/>
+      <c r="AC36" s="42"/>
+      <c r="AD36" s="42"/>
+      <c r="AE36" s="108"/>
+      <c r="AH36" s="78"/>
+    </row>
+    <row r="37" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="2"/>
       <c r="C37" s="5"/>
@@ -3535,25 +4436,26 @@
       <c r="I37" s="5"/>
       <c r="J37" s="2"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="2"/>
+      <c r="L37" s="58"/>
       <c r="M37" s="5"/>
-      <c r="N37" s="2"/>
+      <c r="N37" s="58"/>
       <c r="O37" s="5"/>
-      <c r="P37" s="7"/>
+      <c r="P37" s="6"/>
       <c r="Q37" s="5"/>
-      <c r="R37" s="7"/>
+      <c r="R37" s="6"/>
       <c r="S37" s="5"/>
-      <c r="T37" s="7"/>
+      <c r="T37" s="6"/>
       <c r="U37" s="5"/>
-      <c r="V37" s="2"/>
+      <c r="V37" s="58"/>
       <c r="W37" s="5"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="36"/>
-      <c r="AC37" s="59"/>
-      <c r="AD37" s="59"/>
-      <c r="AE37" s="59"/>
-    </row>
-    <row r="38" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X37" s="58"/>
+      <c r="Y37" s="32"/>
+      <c r="AC37" s="42"/>
+      <c r="AD37" s="42"/>
+      <c r="AE37" s="108"/>
+      <c r="AH37" s="78"/>
+    </row>
+    <row r="38" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="2"/>
       <c r="C38" s="5"/>
@@ -3565,25 +4467,26 @@
       <c r="I38" s="5"/>
       <c r="J38" s="2"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="2"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="58"/>
       <c r="O38" s="5"/>
-      <c r="P38" s="7"/>
+      <c r="P38" s="6"/>
       <c r="Q38" s="5"/>
-      <c r="R38" s="7"/>
+      <c r="R38" s="6"/>
       <c r="S38" s="5"/>
-      <c r="T38" s="7"/>
+      <c r="T38" s="6"/>
       <c r="U38" s="5"/>
-      <c r="V38" s="2"/>
+      <c r="V38" s="58"/>
       <c r="W38" s="5"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="36"/>
-      <c r="AC38" s="59"/>
-      <c r="AD38" s="59"/>
-      <c r="AE38" s="59"/>
-    </row>
-    <row r="39" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X38" s="58"/>
+      <c r="Y38" s="32"/>
+      <c r="AC38" s="42"/>
+      <c r="AD38" s="42"/>
+      <c r="AE38" s="108"/>
+      <c r="AH38" s="78"/>
+    </row>
+    <row r="39" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="2"/>
       <c r="C39" s="5"/>
@@ -3595,261 +4498,654 @@
       <c r="I39" s="5"/>
       <c r="J39" s="2"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="2"/>
+      <c r="L39" s="58"/>
       <c r="M39" s="5"/>
-      <c r="N39" s="2"/>
+      <c r="N39" s="58"/>
       <c r="O39" s="5"/>
-      <c r="P39" s="2"/>
+      <c r="P39" s="58"/>
       <c r="Q39" s="5"/>
-      <c r="R39" s="7"/>
+      <c r="R39" s="6"/>
       <c r="S39" s="5"/>
-      <c r="T39" s="7"/>
+      <c r="T39" s="6"/>
       <c r="U39" s="5"/>
-      <c r="V39" s="2"/>
+      <c r="V39" s="58"/>
       <c r="W39" s="5"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="36"/>
-      <c r="AC39" s="59"/>
-      <c r="AD39" s="59"/>
-      <c r="AE39" s="59"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="O40" s="33"/>
-      <c r="Q40" s="33"/>
+      <c r="X39" s="58"/>
+      <c r="Y39" s="32"/>
+      <c r="AC39" s="42"/>
+      <c r="AD39" s="42"/>
+      <c r="AE39" s="108"/>
+      <c r="AH39" s="78"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="K40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="Q40" s="5"/>
       <c r="R40" s="6"/>
-      <c r="S40" s="33"/>
+      <c r="S40" s="5"/>
       <c r="T40" s="6"/>
-      <c r="U40" s="33"/>
-      <c r="W40" s="33"/>
-      <c r="Y40" s="38"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="O41" s="33"/>
-      <c r="Q41" s="33"/>
+      <c r="U40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="Y40" s="32"/>
+      <c r="AE40" s="108"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="K41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="Q41" s="5"/>
       <c r="R41" s="6"/>
-      <c r="S41" s="33"/>
+      <c r="S41" s="5"/>
       <c r="T41" s="6"/>
-      <c r="U41" s="33"/>
-      <c r="W41" s="33"/>
-      <c r="Y41" s="38"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="U41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="Y41" s="32"/>
+      <c r="AE41" s="108"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="43"/>
-      <c r="D42" s="45" t="s">
+      <c r="C42" s="88"/>
+      <c r="D42" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="41"/>
-      <c r="F42" s="44" t="s">
+      <c r="E42" s="90"/>
+      <c r="F42" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="43"/>
-      <c r="H42" s="45" t="s">
+      <c r="G42" s="88"/>
+      <c r="H42" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="I42" s="41"/>
-      <c r="J42" s="40" t="s">
+      <c r="I42" s="90"/>
+      <c r="J42" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="K42" s="41"/>
-      <c r="L42" s="40" t="s">
+      <c r="K42" s="90"/>
+      <c r="L42" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="M42" s="41"/>
-      <c r="N42" s="40" t="s">
+      <c r="M42" s="83"/>
+      <c r="N42" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="O42" s="41"/>
-      <c r="P42" s="40" t="s">
+      <c r="O42" s="83"/>
+      <c r="P42" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="42" t="s">
+      <c r="Q42" s="83"/>
+      <c r="R42" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="S42" s="43"/>
-      <c r="T42" s="42" t="s">
+      <c r="S42" s="85"/>
+      <c r="T42" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="U42" s="44"/>
-      <c r="V42" s="42" t="s">
+      <c r="U42" s="86"/>
+      <c r="V42" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="W42" s="43"/>
-      <c r="X42" s="42" t="s">
+      <c r="W42" s="85"/>
+      <c r="X42" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="Y42" s="43"/>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
-      <c r="B43" s="23" t="s">
+      <c r="Y42" s="85"/>
+      <c r="AE42" s="108"/>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A43" s="29"/>
+      <c r="B43" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23" t="s">
+      <c r="C43" s="21"/>
+      <c r="D43" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="E43" s="23"/>
-      <c r="G43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="M43" s="33"/>
-      <c r="O43" s="33"/>
-      <c r="Q43" s="33"/>
-      <c r="S43" s="33"/>
-      <c r="U43" s="33"/>
-      <c r="W43" s="33"/>
-      <c r="Y43" s="38"/>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="M44" s="33"/>
-      <c r="O44" s="33"/>
-      <c r="Q44" s="33"/>
-      <c r="S44" s="33"/>
-      <c r="U44" s="33"/>
-      <c r="W44" s="33"/>
-      <c r="Y44" s="38"/>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="O45" s="33"/>
+      <c r="E43" s="21"/>
+      <c r="G43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="K43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="Y43" s="32"/>
+      <c r="AE43" s="40"/>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="K44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="Y44" s="32"/>
+      <c r="AE44" s="40"/>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="K45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="O45" s="5"/>
       <c r="Q45" s="5"/>
-      <c r="S45" s="33"/>
-      <c r="U45" s="33"/>
-      <c r="W45" s="33"/>
-      <c r="Y45" s="38"/>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="K46" s="33"/>
-      <c r="M46" s="33"/>
-      <c r="O46" s="33"/>
-      <c r="Q46" s="33"/>
-      <c r="S46" s="33"/>
-      <c r="U46" s="33"/>
-      <c r="W46" s="33"/>
-      <c r="Y46" s="38"/>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="K47" s="33"/>
-      <c r="M47" s="33"/>
-      <c r="O47" s="33"/>
-      <c r="Q47" s="33"/>
-      <c r="S47" s="33"/>
-      <c r="U47" s="33"/>
-      <c r="W47" s="33"/>
-      <c r="Y47" s="38"/>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="K48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="O48" s="33"/>
-      <c r="Q48" s="33"/>
-      <c r="S48" s="33"/>
-      <c r="U48" s="33"/>
-      <c r="W48" s="33"/>
-      <c r="Y48" s="38"/>
-    </row>
-    <row r="49" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K49" s="33"/>
-      <c r="M49" s="33"/>
-      <c r="O49" s="33"/>
-      <c r="Q49" s="33"/>
-      <c r="S49" s="33"/>
-      <c r="U49" s="33"/>
-      <c r="W49" s="33"/>
-      <c r="Y49" s="38"/>
-    </row>
-    <row r="50" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="K50" s="33"/>
-      <c r="M50" s="33"/>
-      <c r="O50" s="33"/>
-      <c r="Q50" s="33"/>
-      <c r="S50" s="33"/>
-      <c r="U50" s="33"/>
-      <c r="W50" s="33"/>
-      <c r="Y50" s="38"/>
-    </row>
-    <row r="51" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="M51" s="33"/>
-      <c r="O51" s="33"/>
-      <c r="Q51" s="33"/>
-      <c r="S51" s="33"/>
-      <c r="U51" s="33"/>
-      <c r="W51" s="33"/>
-      <c r="Y51" s="38"/>
-    </row>
-    <row r="52" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="M52" s="33"/>
-      <c r="O52" s="33"/>
-      <c r="Q52" s="33"/>
-      <c r="S52" s="33"/>
-      <c r="U52" s="33"/>
-      <c r="W52" s="33"/>
-      <c r="Y52" s="38"/>
-    </row>
-    <row r="53" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="M53" s="33"/>
-      <c r="O53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="S53" s="33"/>
-      <c r="U53" s="33"/>
-      <c r="W53" s="33"/>
-      <c r="Y53" s="38"/>
-    </row>
-    <row r="54" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="O54" s="33"/>
-      <c r="Q54" s="33"/>
-      <c r="S54" s="33"/>
-      <c r="U54" s="33"/>
-      <c r="W54" s="33"/>
-      <c r="Y54" s="38"/>
-    </row>
-    <row r="55" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="O55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="U55" s="33"/>
-      <c r="W55" s="33"/>
-      <c r="Y55" s="38"/>
-    </row>
-    <row r="56" spans="11:25" x14ac:dyDescent="0.25">
-      <c r="W56" s="33"/>
-      <c r="Y56" s="38"/>
+      <c r="S45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="Y45" s="32"/>
+      <c r="AE45" s="40"/>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="K46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="Y46" s="32"/>
+      <c r="AE46" s="40"/>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="K47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="Y47" s="32"/>
+      <c r="AE47" s="40"/>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="K48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="Y48" s="32"/>
+      <c r="AE48" s="40"/>
+    </row>
+    <row r="49" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="K49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="Y49" s="32"/>
+      <c r="AE49" s="40"/>
+    </row>
+    <row r="50" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="K50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="Y50" s="32"/>
+      <c r="AE50" s="40"/>
+    </row>
+    <row r="51" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="M51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="Y51" s="32"/>
+      <c r="AE51" s="40"/>
+    </row>
+    <row r="52" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="M52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="Y52" s="32"/>
+      <c r="AE52" s="40"/>
+    </row>
+    <row r="53" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="M53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="Y53" s="32"/>
+      <c r="AE53" s="40"/>
+    </row>
+    <row r="54" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="O54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="Y54" s="32"/>
+      <c r="AE54" s="40"/>
+    </row>
+    <row r="55" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="O55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="Y55" s="32"/>
+      <c r="AE55" s="109"/>
+    </row>
+    <row r="56" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="W56" s="5"/>
+      <c r="Y56" s="32"/>
+      <c r="AE56" s="109"/>
+    </row>
+    <row r="57" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="AE57" s="109"/>
+    </row>
+    <row r="58" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="AE58" s="109"/>
+    </row>
+    <row r="59" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="AE59" s="109"/>
+    </row>
+    <row r="60" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="AE60" s="109"/>
+    </row>
+    <row r="61" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="AE61" s="109"/>
+    </row>
+    <row r="62" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="AE62" s="109"/>
+    </row>
+    <row r="63" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="AE63" s="109"/>
+    </row>
+    <row r="64" spans="11:31" x14ac:dyDescent="0.25">
+      <c r="AE64" s="109"/>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE65" s="109"/>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE66" s="109"/>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE67" s="109"/>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE68" s="109"/>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE69" s="109"/>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AC70" s="54"/>
+      <c r="AD70" s="54"/>
+      <c r="AE70" s="110"/>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AC71" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD71" s="42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AC72" s="42"/>
+      <c r="AD72" s="42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AC73" s="42"/>
+      <c r="AD73" s="43" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AC74" s="42"/>
+      <c r="AD74" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B75" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="88"/>
+      <c r="D75" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="90"/>
+      <c r="F75" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" s="88"/>
+      <c r="H75" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75" s="90"/>
+      <c r="J75" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="K75" s="90"/>
+      <c r="L75" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="M75" s="83"/>
+      <c r="N75" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="O75" s="83"/>
+      <c r="P75" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q75" s="83"/>
+      <c r="R75" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="S75" s="85"/>
+      <c r="T75" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="U75" s="86"/>
+      <c r="V75" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="W75" s="85"/>
+      <c r="X75" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y75" s="85"/>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B76" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="C76" s="69" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="E76" s="69">
+        <v>-18</v>
+      </c>
+      <c r="F76" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="G76" s="68" t="s">
+        <v>212</v>
+      </c>
+      <c r="H76" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="I76" s="69">
+        <v>-14</v>
+      </c>
+      <c r="J76" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="K76" s="71" t="s">
+        <v>218</v>
+      </c>
+      <c r="L76" s="69" t="s">
+        <v>221</v>
+      </c>
+      <c r="M76" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="N76" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="O76" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="P76" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q76" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="R76" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="S76" s="69" t="s">
+        <v>225</v>
+      </c>
+      <c r="T76" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="U76" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="V76" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="W76" s="66">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B77" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="C77" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="D77" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="E77" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="F77" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="G77" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="H77" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="I77" s="65">
+        <v>-14</v>
+      </c>
+      <c r="L77" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="M77" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="N77" s="69" t="s">
+        <v>221</v>
+      </c>
+      <c r="O77" s="69" t="s">
+        <v>223</v>
+      </c>
+      <c r="P77" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q77" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="R77" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="S77" s="67" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B78" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="C78" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="D78" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="E78" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="G78" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="H78" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="I78" s="67">
+        <v>-20</v>
+      </c>
+      <c r="L78" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="M78" s="68" t="s">
+        <v>208</v>
+      </c>
+      <c r="N78" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="O78" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="P78" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q78" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="R78" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="S78" s="68" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B79" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="C79" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="E79" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="G79" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="L79" s="65" t="s">
+        <v>196</v>
+      </c>
+      <c r="M79" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="N79" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="O79" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="P79" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q79" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="R79" s="65" t="s">
+        <v>196</v>
+      </c>
+      <c r="S79" s="65">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N80" s="65" t="s">
+        <v>196</v>
+      </c>
+      <c r="O80" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="P80" s="65" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q80" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="R80" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="S80" s="65" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="81" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R81" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="S81" s="66" t="s">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="60">
+    <mergeCell ref="V75:W75"/>
+    <mergeCell ref="X75:Y75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
     <mergeCell ref="V42:W42"/>
     <mergeCell ref="X42:Y42"/>
     <mergeCell ref="B1:C1"/>
